--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,39 +463,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>168.4</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>1223.5</v>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>27.5</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>650</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,85 +436,47 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Datums</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Kalorijas</t>
+          <t>Kalorijas_g</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tauki</t>
+          <t>Tauki_g</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Oglhidrati</t>
+          <t>Oglhidrati_g</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Proteini</t>
+          <t>Proteini_g</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.4</v>
+        <v>2058.7</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>93.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1223.5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>225</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>650</v>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
+        <v>220.9</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2058.7</v>
+        <v>4772.7</v>
       </c>
       <c r="C2" t="n">
-        <v>93.3</v>
+        <v>317.9</v>
       </c>
       <c r="D2" t="n">
-        <v>79.80000000000001</v>
+        <v>243</v>
       </c>
       <c r="E2" t="n">
-        <v>220.9</v>
+        <v>368.9</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4772.7</v>
+        <v>62.4</v>
       </c>
       <c r="C2" t="n">
-        <v>317.9</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>243</v>
+        <v>13.1</v>
       </c>
       <c r="E2" t="n">
-        <v>368.9</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.4</v>
+        <v>212.16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>2.04</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1</v>
+        <v>44.54</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
